--- a/images/stx_fish_image_schema_main_v0.1.xlsx
+++ b/images/stx_fish_image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A7E5F-D50F-C04F-9C1F-821F6108C4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF9D40-8FE4-BD44-983F-B04CD8CA936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30860" yWindow="-2040" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="409">
   <si>
     <t>component_name</t>
   </si>
@@ -858,9 +858,6 @@
   </si>
   <si>
     <t>File</t>
-  </si>
-  <si>
-    <t>read</t>
   </si>
   <si>
     <t>api_link</t>
@@ -1382,6 +1379,9 @@
   </si>
   <si>
     <t>AND(ISNUMBER(VALUE({column_letter}{row_start})), VALUE({column_letter}{row_start}) &gt;= 0)</t>
+  </si>
+  <si>
+    <t>ontology</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2555,10 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2:C41"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3321,7 +3321,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>109</v>
@@ -3371,7 +3371,7 @@
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>117</v>
@@ -3421,7 +3421,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>408</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>123</v>
@@ -4471,7 +4471,7 @@
   </sheetPr>
   <dimension ref="A1:D464"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4491,7 +4491,7 @@
         <v>179</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>55</v>
@@ -4508,7 +4508,7 @@
         <v>229</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4522,7 +4522,7 @@
         <v>231</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4546,7 +4546,7 @@
         <v>235</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>237</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4570,7 +4570,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -6923,7 +6923,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6992,9 +6992,6 @@
       </c>
       <c r="B6" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C6" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -7024,7 +7021,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7034,12 +7031,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7072,10 +7069,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>263</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7083,21 +7080,21 @@
         <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>268</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7105,43 +7102,43 @@
         <v>83</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>273</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>279</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7149,7 +7146,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8" s="23"/>
     </row>
@@ -7158,16 +7155,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>283</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>284</v>
       </c>
       <c r="C10" s="23"/>
     </row>
@@ -7176,63 +7173,63 @@
         <v>132</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>285</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>287</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>288</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>290</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>293</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>296</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>299</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -7240,21 +7237,21 @@
         <v>168</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>301</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7262,25 +7259,25 @@
         <v>139</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>309</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>310</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -7289,41 +7286,41 @@
         <v>138</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="23" t="s">
         <v>316</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="C25" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7331,10 +7328,10 @@
         <v>129</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,10 +7339,10 @@
         <v>140</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>323</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7353,10 +7350,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>325</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7364,10 +7361,10 @@
         <v>148</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>327</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7375,43 +7372,43 @@
         <v>177</v>
       </c>
       <c r="B30" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>329</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="23" t="s">
         <v>332</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="C32" s="23" t="s">
         <v>335</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="23" t="s">
         <v>338</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -7419,21 +7416,21 @@
         <v>64</v>
       </c>
       <c r="B34" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7441,7 +7438,7 @@
         <v>190</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" s="28"/>
     </row>
@@ -7450,7 +7447,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C37" s="23"/>
     </row>
@@ -7459,7 +7456,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C38" s="28"/>
     </row>
@@ -7468,7 +7465,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C39" s="23"/>
     </row>
@@ -7477,7 +7474,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C40" s="23"/>
     </row>
@@ -7486,52 +7483,52 @@
         <v>101</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>351</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>352</v>
       </c>
       <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>354</v>
       </c>
       <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>355</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>356</v>
       </c>
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>357</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="C46" s="23"/>
     </row>
@@ -7540,16 +7537,16 @@
         <v>131</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>362</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>363</v>
       </c>
       <c r="C48" s="23"/>
     </row>
@@ -7558,61 +7555,61 @@
         <v>208</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>365</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>366</v>
       </c>
       <c r="C50" s="28"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="27" t="s">
         <v>367</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>368</v>
       </c>
       <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>369</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>370</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>371</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>372</v>
       </c>
       <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="C54" s="23"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>375</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>376</v>
       </c>
       <c r="C55" s="28"/>
     </row>
@@ -7621,25 +7618,25 @@
         <v>130</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C56" s="28"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B57" s="27" t="s">
         <v>378</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>379</v>
       </c>
       <c r="C57" s="28"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>380</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>381</v>
       </c>
       <c r="C58" s="28"/>
     </row>
@@ -7648,16 +7645,16 @@
         <v>120</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B60" s="37" t="s">
         <v>407</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>408</v>
       </c>
       <c r="C60" s="38"/>
     </row>
@@ -7697,7 +7694,7 @@
         <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7705,7 +7702,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7713,7 +7710,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7721,7 +7718,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -7759,7 +7756,7 @@
         <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -7792,7 +7789,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7800,7 +7797,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7808,31 +7805,31 @@
         <v>109</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" t="s">
         <v>390</v>
-      </c>
-      <c r="B4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" t="s">
         <v>392</v>
-      </c>
-      <c r="B5" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7845,10 +7842,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7893,26 +7890,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/images/stx_fish_image_schema_main_v0.1.xlsx
+++ b/images/stx_fish_image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO-schemas/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF9D40-8FE4-BD44-983F-B04CD8CA936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A49FB0-9ABB-C94B-A8B8-C060C3136802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
     <sheet name="term_mapping" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$Q$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$R$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$Q$36</definedName>
+    <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$R$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="412">
   <si>
     <t>component_name</t>
   </si>
@@ -1382,6 +1382,15 @@
   </si>
   <si>
     <t>ontology</t>
+  </si>
+  <si>
+    <t>identifier_prefix</t>
+  </si>
+  <si>
+    <t>IMGPROT</t>
+  </si>
+  <si>
+    <t>FILE</t>
   </si>
 </sst>
 </file>
@@ -2203,7 +2212,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="View1" id="{6954CA39-3A4A-425E-8D74-F55DAFA5B207}">
-    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:Q41" tableId="0"/>
+    <nsvFilter filterId="{545CA0C1-0282-3A43-9C60-512DE414A571}" ref="A1:R41" tableId="0"/>
   </namedSheetView>
 </namedSheetViews>
 </file>
@@ -2553,12 +2562,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2568,21 +2577,21 @@
     <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="114.83203125" customWidth="1"/>
-    <col min="9" max="9" width="131.83203125" customWidth="1"/>
-    <col min="10" max="10" width="66.5" customWidth="1"/>
-    <col min="11" max="11" width="58.5" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.5" customWidth="1"/>
-    <col min="15" max="15" width="25.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="114.83203125" customWidth="1"/>
+    <col min="10" max="10" width="131.83203125" customWidth="1"/>
+    <col min="11" max="11" width="66.5" customWidth="1"/>
+    <col min="12" max="12" width="58.5" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="43.5" customWidth="1"/>
+    <col min="16" max="16" width="25.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2602,40 +2611,43 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="P1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -2651,36 +2663,36 @@
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="Q2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="R2" s="46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -2699,34 +2711,34 @@
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>17</v>
       </c>
@@ -2745,30 +2757,30 @@
       <c r="F4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="39"/>
-    </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>17</v>
       </c>
@@ -2784,32 +2796,32 @@
       <c r="F5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="Q5" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="R5" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2825,32 +2837,32 @@
       <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="4"/>
+      <c r="P6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="54" t="s">
+      <c r="Q6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="48" t="s">
+      <c r="R6" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -2867,39 +2879,40 @@
       <c r="F7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="2"/>
+      <c r="P7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="Q7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -2915,36 +2928,36 @@
       <c r="F8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="40" t="s">
+      <c r="O8" s="3"/>
+      <c r="P8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="52" t="s">
+      <c r="Q8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="47" t="s">
+      <c r="R8" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -2960,38 +2973,38 @@
       <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="P9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="Q9" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="R9" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
@@ -3007,38 +3020,38 @@
       <c r="F10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="P10" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="52" t="s">
+      <c r="Q10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="R10" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3054,38 +3067,38 @@
       <c r="F11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="J11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="25" t="s">
+      <c r="O11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="40" t="s">
+      <c r="P11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="52" t="s">
+      <c r="Q11" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="39" t="s">
+      <c r="R11" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -3101,38 +3114,38 @@
       <c r="F12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>88</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="P12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="Q12" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="39" t="s">
+      <c r="R12" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -3148,34 +3161,34 @@
       <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O13" s="40" t="s">
+      <c r="P13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="52" t="s">
+      <c r="Q13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="R13" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
@@ -3191,38 +3204,38 @@
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="42" t="s">
+      <c r="P14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="53" t="s">
+      <c r="Q14" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q14" s="47" t="s">
+      <c r="R14" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>103</v>
       </c>
@@ -3239,39 +3252,40 @@
       <c r="F15" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="59" t="s">
+      <c r="O15" s="2"/>
+      <c r="P15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="55" t="s">
+      <c r="Q15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="R15" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>103</v>
       </c>
@@ -3287,36 +3301,36 @@
       <c r="F16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="40" t="s">
+      <c r="O16" s="3"/>
+      <c r="P16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="52" t="s">
+      <c r="Q16" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="R16" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>103</v>
       </c>
@@ -3335,38 +3349,38 @@
       <c r="F17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="40" t="s">
+      <c r="P17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="52" t="s">
+      <c r="Q17" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="R17" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>103</v>
       </c>
@@ -3385,38 +3399,38 @@
       <c r="F18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8036</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="40" t="s">
+      <c r="P18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="52" t="s">
+      <c r="Q18" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="60" t="s">
+      <c r="R18" s="60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>103</v>
       </c>
@@ -3435,34 +3449,34 @@
       <c r="F19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O19" s="40" t="s">
+      <c r="P19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="56" t="s">
+      <c r="Q19" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="61" t="s">
+      <c r="R19" s="61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>149</v>
       </c>
@@ -3479,39 +3493,40 @@
       <c r="F20" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="45" t="s">
+      <c r="O20" s="2"/>
+      <c r="P20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="57" t="s">
+      <c r="Q20" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="R20" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
@@ -3527,36 +3542,39 @@
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="40" t="s">
+      <c r="O21" s="3"/>
+      <c r="P21" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="Q21" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="R21" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>149</v>
       </c>
@@ -3572,34 +3590,34 @@
       <c r="F22" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="3"/>
+      <c r="P22" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="Q22" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="R22" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>149</v>
       </c>
@@ -3615,34 +3633,34 @@
       <c r="F23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="40" t="s">
+      <c r="O23" s="3"/>
+      <c r="P23" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="Q23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="R23" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>149</v>
       </c>
@@ -3658,34 +3676,34 @@
       <c r="F24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="40" t="s">
+      <c r="O24" s="3"/>
+      <c r="P24" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="Q24" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="R24" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>149</v>
       </c>
@@ -3701,36 +3719,36 @@
       <c r="F25" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="40" t="s">
+      <c r="O25" s="3"/>
+      <c r="P25" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="52" t="s">
+      <c r="Q25" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="R25" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>149</v>
       </c>
@@ -3746,34 +3764,34 @@
       <c r="F26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="40" t="s">
+      <c r="O26" s="3"/>
+      <c r="P26" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="52" t="s">
+      <c r="Q26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="39" t="s">
+      <c r="R26" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>149</v>
       </c>
@@ -3789,36 +3807,36 @@
       <c r="F27" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>22</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="40" t="s">
+      <c r="O27" s="3"/>
+      <c r="P27" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="52" t="s">
+      <c r="Q27" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="39" t="s">
+      <c r="R27" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>149</v>
       </c>
@@ -3834,32 +3852,32 @@
       <c r="F28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="N28" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="3"/>
+      <c r="P28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P28" s="52" t="s">
+      <c r="Q28" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="39" t="s">
+      <c r="R28" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>149</v>
       </c>
@@ -3875,36 +3893,36 @@
       <c r="F29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="40" t="s">
+      <c r="O29" s="3"/>
+      <c r="P29" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P29" s="52" t="s">
+      <c r="Q29" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" s="39" t="s">
+      <c r="R29" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>149</v>
       </c>
@@ -3920,36 +3938,36 @@
       <c r="F30" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="40" t="s">
+      <c r="O30" s="3"/>
+      <c r="P30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="52" t="s">
+      <c r="Q30" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="39" t="s">
+      <c r="R30" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>149</v>
       </c>
@@ -3965,36 +3983,36 @@
       <c r="F31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="3"/>
-      <c r="O31" s="40" t="s">
+      <c r="O31" s="3"/>
+      <c r="P31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="52" t="s">
+      <c r="Q31" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="39" t="s">
+      <c r="R31" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>149</v>
       </c>
@@ -4010,36 +4028,36 @@
       <c r="F32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="40" t="s">
+      <c r="O32" s="3"/>
+      <c r="P32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="Q32" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="39" t="s">
+      <c r="R32" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>149</v>
       </c>
@@ -4055,36 +4073,36 @@
       <c r="F33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="L33" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="40" t="s">
+      <c r="O33" s="3"/>
+      <c r="P33" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="52" t="s">
+      <c r="Q33" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="39" t="s">
+      <c r="R33" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>149</v>
       </c>
@@ -4100,36 +4118,36 @@
       <c r="F34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="40" t="s">
+      <c r="O34" s="3"/>
+      <c r="P34" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="52" t="s">
+      <c r="Q34" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="R34" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>149</v>
       </c>
@@ -4145,36 +4163,36 @@
       <c r="F35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="L35" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="40" t="s">
+      <c r="O35" s="3"/>
+      <c r="P35" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P35" s="52" t="s">
+      <c r="Q35" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="39" t="s">
+      <c r="R35" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>149</v>
       </c>
@@ -4192,32 +4210,33 @@
         <v>0</v>
       </c>
       <c r="G36" s="8"/>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="5" t="s">
+      <c r="K36" s="5"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="N36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="5"/>
+      <c r="P36" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="P36" s="53" t="s">
+      <c r="Q36" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="47" t="s">
+      <c r="R36" s="47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>147</v>
       </c>
@@ -4234,39 +4253,40 @@
       <c r="F37" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="57" t="s">
+      <c r="Q37" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="49" t="s">
+      <c r="R37" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>147</v>
       </c>
@@ -4274,47 +4294,47 @@
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="F38" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>152</v>
+        <v>411</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="40" t="s">
+      <c r="O38" s="3"/>
+      <c r="P38" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="52" t="s">
+      <c r="Q38" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="39" t="s">
+      <c r="R38" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>147</v>
       </c>
@@ -4322,44 +4342,47 @@
         <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="F39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>219</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="J39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="3"/>
-      <c r="O39" s="40" t="s">
+      <c r="O39" s="3"/>
+      <c r="P39" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="52" t="s">
+      <c r="Q39" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="39" t="s">
+      <c r="R39" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>147</v>
       </c>
@@ -4375,32 +4398,32 @@
       <c r="F40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="40" t="s">
+      <c r="O40" s="3"/>
+      <c r="P40" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="52" t="s">
+      <c r="Q40" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="39" t="s">
+      <c r="R40" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
@@ -4416,48 +4439,48 @@
       <c r="F41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="3"/>
-      <c r="O41" s="42" t="s">
+      <c r="O41" s="3"/>
+      <c r="P41" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="53" t="s">
+      <c r="Q41" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="47" t="s">
+      <c r="R41" s="47" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q41" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:R41" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q41" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P40:R41 P2:R39" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
-    <hyperlink ref="N4" r:id="rId2" xr:uid="{B6324E9C-8C2F-C145-A45B-D0979D42088D}"/>
-    <hyperlink ref="N17" r:id="rId3" xr:uid="{FAD09081-DEBA-E242-A319-737B3A1AE1CD}"/>
-    <hyperlink ref="N18" r:id="rId4" xr:uid="{15DAC48D-D827-D441-A849-2DCD46C7727E}"/>
-    <hyperlink ref="N10" r:id="rId5" xr:uid="{A58E6FC1-1C35-D840-8A06-8FC26464E9DF}"/>
-    <hyperlink ref="N13" r:id="rId6" xr:uid="{8613F765-3842-A94A-9054-F5BF25A788F4}"/>
-    <hyperlink ref="N12" r:id="rId7" xr:uid="{A4DBEF14-A5AE-4745-AB94-523B6D5EE1B4}"/>
-    <hyperlink ref="N14" r:id="rId8" xr:uid="{68E20778-FF55-764B-B06F-6FAA9D56862D}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{2D38C7B1-C57C-4D62-A463-032B117407B3}"/>
-    <hyperlink ref="N11" r:id="rId10" xr:uid="{BF91FAF0-BAD3-40C2-8DBE-448231649BC5}"/>
-    <hyperlink ref="N19" r:id="rId11" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
+    <hyperlink ref="O3" r:id="rId1" xr:uid="{4D6B5FE8-0E6D-E84F-B3F9-D5B11E30DF9B}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{B6324E9C-8C2F-C145-A45B-D0979D42088D}"/>
+    <hyperlink ref="O17" r:id="rId3" xr:uid="{FAD09081-DEBA-E242-A319-737B3A1AE1CD}"/>
+    <hyperlink ref="O18" r:id="rId4" xr:uid="{15DAC48D-D827-D441-A849-2DCD46C7727E}"/>
+    <hyperlink ref="O10" r:id="rId5" xr:uid="{A58E6FC1-1C35-D840-8A06-8FC26464E9DF}"/>
+    <hyperlink ref="O13" r:id="rId6" xr:uid="{8613F765-3842-A94A-9054-F5BF25A788F4}"/>
+    <hyperlink ref="O12" r:id="rId7" xr:uid="{A4DBEF14-A5AE-4745-AB94-523B6D5EE1B4}"/>
+    <hyperlink ref="O14" r:id="rId8" xr:uid="{68E20778-FF55-764B-B06F-6FAA9D56862D}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{2D38C7B1-C57C-4D62-A463-032B117407B3}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{BF91FAF0-BAD3-40C2-8DBE-448231649BC5}"/>
+    <hyperlink ref="O19" r:id="rId11" xr:uid="{2BA242DC-2C53-4118-835C-02CD479C61F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId12"/>

--- a/images/stx_fish_image_schema_main_v0.1.xlsx
+++ b/images/stx_fish_image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zef22hak/development/COPO_refactoring/COPO-production/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A49FB0-9ABB-C94B-A8B8-C060C3136802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F9695-C522-7C48-B1ED-DCF767AA5587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -821,22 +821,13 @@
     <t>dwc</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Darwin Core (DwC)]</t>
-  </si>
-  <si>
     <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), adhering to Darwin Core (DwC) standards for describing biodiversity related features.</t>
   </si>
   <si>
     <t>stx_fish</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
     <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
-  </si>
-  <si>
-    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Tree of Life (ToL)]</t>
   </si>
   <si>
     <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), with metadata based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
@@ -1391,6 +1382,15 @@
   </si>
   <si>
     <t>FILE</t>
+  </si>
+  <si>
+    <t>Darwin Core metadata</t>
+  </si>
+  <si>
+    <t>Minimum Information about any Sequence metadata</t>
+  </si>
+  <si>
+    <t>Tree of Life metadata</t>
   </si>
 </sst>
 </file>
@@ -2564,7 +2564,7 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
       <selection pane="topRight" activeCell="A21" sqref="A21:XFD21"/>
@@ -2611,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
@@ -3335,7 +3335,7 @@
         <v>103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>109</v>
@@ -3385,7 +3385,7 @@
         <v>103</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>117</v>
@@ -3435,7 +3435,7 @@
         <v>103</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>123</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>152</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>219</v>
@@ -4514,7 +4514,7 @@
         <v>179</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>55</v>
@@ -4531,7 +4531,7 @@
         <v>229</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>231</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4557,7 +4557,7 @@
         <v>233</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
         <v>235</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4581,7 +4581,7 @@
         <v>237</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -4593,7 +4593,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -6853,8 +6853,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6887,16 +6887,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>247</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>245</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6904,16 +6904,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6921,16 +6921,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
         <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -6965,10 +6965,10 @@
         <v>243</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -6990,7 +6990,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7006,7 +7006,7 @@
         <v>149</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -7014,7 +7014,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7044,7 +7044,7 @@
         <v>242</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7054,12 +7054,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7092,10 +7092,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7103,21 +7103,21 @@
         <v>23</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7125,43 +7125,43 @@
         <v>83</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7169,7 +7169,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" s="23"/>
     </row>
@@ -7178,16 +7178,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C10" s="23"/>
     </row>
@@ -7196,63 +7196,63 @@
         <v>132</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -7260,21 +7260,21 @@
         <v>168</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,25 +7282,25 @@
         <v>139</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -7309,41 +7309,41 @@
         <v>138</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7351,10 +7351,10 @@
         <v>129</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7362,10 +7362,10 @@
         <v>140</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7373,10 +7373,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7384,10 +7384,10 @@
         <v>148</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7395,43 +7395,43 @@
         <v>177</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -7439,21 +7439,21 @@
         <v>64</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>190</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C36" s="28"/>
     </row>
@@ -7470,7 +7470,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C37" s="23"/>
     </row>
@@ -7479,7 +7479,7 @@
         <v>71</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C38" s="28"/>
     </row>
@@ -7488,7 +7488,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C39" s="23"/>
     </row>
@@ -7497,7 +7497,7 @@
         <v>90</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C40" s="23"/>
     </row>
@@ -7506,52 +7506,52 @@
         <v>101</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C41" s="23"/>
     </row>
     <row r="42" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C42" s="28"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C43" s="23"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C44" s="23"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C45" s="23"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C46" s="23"/>
     </row>
@@ -7560,16 +7560,16 @@
         <v>131</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C48" s="23"/>
     </row>
@@ -7578,61 +7578,61 @@
         <v>208</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C50" s="28"/>
     </row>
     <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C51" s="28"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C54" s="23"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C55" s="28"/>
     </row>
@@ -7641,25 +7641,25 @@
         <v>130</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C56" s="28"/>
     </row>
     <row r="57" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C57" s="28"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C58" s="28"/>
     </row>
@@ -7668,16 +7668,16 @@
         <v>120</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C60" s="38"/>
     </row>
@@ -7717,7 +7717,7 @@
         <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7733,7 +7733,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7741,7 +7741,7 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7776,10 +7776,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +7812,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7820,7 +7820,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7828,31 +7828,31 @@
         <v>109</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7865,10 +7865,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7913,26 +7913,26 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">

--- a/images/stx_fish_image_schema_main_v0.1.xlsx
+++ b/images/stx_fish_image_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/COPO-schemas/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F9695-C522-7C48-B1ED-DCF767AA5587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74047299-6222-054F-876F-C79105C4FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" activeTab="2" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17960" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2564,10 +2564,10 @@
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A23" sqref="A23"/>
-      <selection pane="topRight" activeCell="A21" sqref="A21:XFD21"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6853,7 +6853,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
